--- a/data/state_election_results/newmexico_president.xlsx
+++ b/data/state_election_results/newmexico_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC96354A-C829-C44C-AE60-4314EC698ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA17FC7-028A-884C-9232-883FFEC5E172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18560" yWindow="3700" windowWidth="13380" windowHeight="15940" xr2:uid="{96D7931B-F7B2-484C-B841-E01FAF0C6B7A}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Valencia</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,32 +515,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC23766-D28D-1542-84CD-B8B16400D6E2}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>193756</v>
@@ -557,7 +555,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>595</v>
@@ -574,7 +572,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>6381</v>
@@ -591,7 +589,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>4745</v>
@@ -608,7 +606,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>2611</v>
@@ -625,7 +623,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>4307</v>
@@ -642,7 +640,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>231</v>
@@ -659,7 +657,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>47958</v>
@@ -676,7 +674,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>5424</v>
@@ -693,7 +691,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>7590</v>
@@ -710,7 +708,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>1234</v>
@@ -727,7 +725,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>179</v>
@@ -744,7 +742,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>823</v>
@@ -761,7 +759,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>4061</v>
@@ -778,7 +776,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>3194</v>
@@ -795,7 +793,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>7554</v>
@@ -812,7 +810,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>3565</v>
@@ -829,7 +827,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>17971</v>
@@ -846,7 +844,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>1745</v>
@@ -863,7 +861,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>8485</v>
@@ -880,7 +878,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>1170</v>
@@ -897,7 +895,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>10990</v>
@@ -914,7 +912,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>1802</v>
@@ -931,7 +929,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>40588</v>
@@ -948,7 +946,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>18083</v>
@@ -965,7 +963,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>7888</v>
@@ -982,7 +980,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>62530</v>
@@ -999,7 +997,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>2265</v>
@@ -1016,7 +1014,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>3722</v>
@@ -1033,7 +1031,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>13030</v>
@@ -1050,7 +1048,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>2344</v>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>383</v>
@@ -1084,7 +1082,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>14263</v>
